--- a/former_school_dilapidation_data.xlsx
+++ b/former_school_dilapidation_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13845" windowHeight="12900"/>
+    <workbookView windowWidth="26910" windowHeight="12900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,117 +27,207 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
-  <si>
-    <t>Name of the school</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>Ward</t>
-  </si>
-  <si>
-    <t>Local Govt Area</t>
-  </si>
-  <si>
-    <t>Image</t>
-  </si>
-  <si>
-    <t>Email of respondent</t>
-  </si>
-  <si>
-    <t>Level of Dilapidation</t>
-  </si>
-  <si>
-    <t>Latitude</t>
-  </si>
-  <si>
-    <t>Longitude</t>
-  </si>
-  <si>
-    <t>Harmony Academy</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="67">
+  <si>
+    <t>S/N</t>
+  </si>
+  <si>
+    <t>NAME OF SCHOOL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SCHOOL ADDRESS</t>
+  </si>
+  <si>
+    <t>CATEGORY</t>
+  </si>
+  <si>
+    <t>WARD</t>
+  </si>
+  <si>
+    <t>STATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LGAs </t>
+  </si>
+  <si>
+    <t>IMAGE</t>
+  </si>
+  <si>
+    <t>LATITUDE</t>
+  </si>
+  <si>
+    <t>LONGITUDE</t>
+  </si>
+  <si>
+    <t>LEVEL OF DILAPIDATION</t>
+  </si>
+  <si>
+    <t>INFRASTRUCTURAL NEEDS</t>
+  </si>
+  <si>
+    <t>Ansar ud deen high school</t>
+  </si>
+  <si>
+    <t>Liberty road ibadan</t>
+  </si>
+  <si>
+    <t>Secondary</t>
   </si>
   <si>
     <t>Oyo</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Ife Central</t>
-  </si>
-  <si>
-    <t>https://cdn.pixabay.com/photo/2022/01/30/19/46/school-6982073_640.jpg</t>
-  </si>
-  <si>
-    <t>harmony@example.com</t>
-  </si>
-  <si>
-    <t>fair</t>
-  </si>
-  <si>
-    <t>Bright Future School</t>
-  </si>
-  <si>
-    <t>5</t>
+    <t>Ibadan South West</t>
+  </si>
+  <si>
+    <t>Extremely bad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toilet, water, classrooms </t>
+  </si>
+  <si>
+    <t>Ansar ud High school</t>
+  </si>
+  <si>
+    <t>Liberty Road Oke Ado Ibadan</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1t9Q8LGafDhZqOUP8Qr3fl8xCKbHo9qCw/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>Very bad</t>
+  </si>
+  <si>
+    <t>Toilet facilities, renovation of dilapidated buildings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Polytecnic Ibadan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sango poly ibadan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tertiary </t>
   </si>
   <si>
     <t>Ibadan North</t>
   </si>
   <si>
-    <t>https://cdn.pixabay.com/photo/2015/08/05/13/55/children-876543_640.jpg</t>
-  </si>
-  <si>
-    <t>brightfuture@example.com</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>Starlight High</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>Ijebu East</t>
-  </si>
-  <si>
-    <t>https://cdn.pixabay.com/photo/2020/12/15/13/54/children-5833719_640.jpg</t>
-  </si>
-  <si>
-    <t>starlight@example.com</t>
-  </si>
-  <si>
-    <t>very bad</t>
-  </si>
-  <si>
-    <t>Greenwood Primary</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Ogbomosho South</t>
-  </si>
-  <si>
-    <t>greenwood@example.com</t>
-  </si>
-  <si>
-    <t>extremely bad</t>
-  </si>
-  <si>
-    <t>Sunrise International</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>Oyo West</t>
-  </si>
-  <si>
-    <t>sunrise@example.com</t>
+    <t>https://drive.google.com/u/0/open?usp=forms_web&amp;id=1KNhr1FvPesvQIW5_jsEqxjMHDeqfGMhR</t>
+  </si>
+  <si>
+    <t>Fairly bad</t>
+  </si>
+  <si>
+    <t>Standard class room</t>
+  </si>
+  <si>
+    <t>Saint John's Secondary School Omi Onigbagbo.</t>
+  </si>
+  <si>
+    <t>Along Ibadan Abeokuta Road.</t>
+  </si>
+  <si>
+    <t>Ido</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Flaa0f-y8kD6S_H_3EhdTV6jEvYLw9KV/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>Bad</t>
+  </si>
+  <si>
+    <t>Classroom upgrade, School Fence, Functional Library, Toilets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aperin Boys High School </t>
+  </si>
+  <si>
+    <t>Orita Aperin Ibadan</t>
+  </si>
+  <si>
+    <t>Ibadan North West</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1mK-O9w2P2SZIthuIRoXSJvFV_Mwl8yc8/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renovation </t>
+  </si>
+  <si>
+    <t>Ibadan Boys High School</t>
+  </si>
+  <si>
+    <t>Oke-Ado, Ibadan</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/u/0/open?usp=forms_web&amp;id=1qHGxlds3OW5H4-ZPqjvOEr1MSfemOWGb</t>
+  </si>
+  <si>
+    <t>Repair of roofs, chairs, toilets, replacement of windows</t>
+  </si>
+  <si>
+    <t>Oke Ado High School</t>
+  </si>
+  <si>
+    <t>Joyce B Road, Oke-Ado, Ibadan</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/u/0/open?usp=forms_web&amp;id=15BE132TxIDiiEyFDaQ4EHvCpjSULs5u4</t>
+  </si>
+  <si>
+    <t>Replacement of roofs, ceilings, rebuilding of dilapidated blocks</t>
+  </si>
+  <si>
+    <t>Methodist Secondary School, Fiditi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oyo-Ibadan Expressway, Fiditi </t>
+  </si>
+  <si>
+    <t>Afijo</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/u/0/open?usp=forms_web&amp;id=1qsLCtS97a3tIHE-OYBysUNeS4snw9p0i</t>
+  </si>
+  <si>
+    <t>the school needs a complete renovation</t>
+  </si>
+  <si>
+    <t>Baptist High School, Oke-Ado</t>
+  </si>
+  <si>
+    <t>Liberty Road, Oke-Ado, Ibadan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/u/0/open?usp=forms_web&amp;id=1hQb-uXVvwo4g97r8FO_8fE4nApDmqX9n</t>
+  </si>
+  <si>
+    <t>Toilets, roofing, ceilings, windows</t>
+  </si>
+  <si>
+    <t>I M G Primary school</t>
+  </si>
+  <si>
+    <t>Adekile Orita Aperin Ibadan</t>
+  </si>
+  <si>
+    <t>Ibadan South East</t>
+  </si>
+  <si>
+    <t>Standards Class room</t>
+  </si>
+  <si>
+    <t>Goodwills Grammar Schools</t>
+  </si>
+  <si>
+    <t>Adekile Orita Aperin Ibadan.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secondary </t>
   </si>
 </sst>
 </file>
@@ -150,29 +240,30 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="26">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial Black"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Black"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -181,6 +272,19 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -189,6 +293,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -511,27 +623,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -635,163 +732,177 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -845,7 +956,221 @@
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    </tableStyle>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -865,44 +1190,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -935,9 +1260,9 @@
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -976,160 +1301,131 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -1141,206 +1437,674 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:S100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="18.7238095238095" customWidth="1"/>
-    <col min="3" max="3" width="8.18095238095238" customWidth="1"/>
-    <col min="4" max="4" width="16.3619047619048" customWidth="1"/>
-    <col min="5" max="5" width="11.3619047619048" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="14.2666666666667" customWidth="1"/>
-    <col min="9" max="9" width="11.7142857142857"/>
+    <col min="1" max="1" width="8.71428571428571" customWidth="1"/>
+    <col min="2" max="2" width="56.8571428571429" customWidth="1"/>
+    <col min="3" max="3" width="50.1428571428571" customWidth="1"/>
+    <col min="4" max="4" width="17.7142857142857" customWidth="1"/>
+    <col min="5" max="6" width="8.71428571428571" customWidth="1"/>
+    <col min="7" max="7" width="22.5714285714286" customWidth="1"/>
+    <col min="8" max="8" width="92.2857142857143" customWidth="1"/>
+    <col min="9" max="9" width="21.2857142857143" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7142857142857" style="1" customWidth="1"/>
+    <col min="11" max="11" width="32.1428571428571" customWidth="1"/>
+    <col min="12" max="12" width="73.7142857142857" customWidth="1"/>
+    <col min="13" max="13" width="20.4285714285714" customWidth="1"/>
+    <col min="14" max="19" width="8.71428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="18.75" spans="1:19">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
     </row>
-    <row r="2" ht="17.25" spans="1:9">
-      <c r="A2" t="s">
+    <row r="2" ht="17.25" spans="1:19">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="4">
+        <v>10</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="6">
+        <v>7.4744</v>
+      </c>
+      <c r="J2" s="7">
+        <v>4.5593</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="4">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="F3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="8">
+        <v>7.3964</v>
+      </c>
+      <c r="J3" s="8">
+        <v>3.9167</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="4">
+        <v>8</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="8">
+        <v>6.75</v>
+      </c>
+      <c r="J4" s="8">
+        <v>4.1667</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="4">
+        <v>6</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="8">
+        <v>8.1333</v>
+      </c>
+      <c r="J5" s="8">
+        <v>4.25</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="4">
+        <v>4</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="8">
+        <v>7.85</v>
+      </c>
+      <c r="J6" s="8">
+        <v>3.9333</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="4">
+        <v>12</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="9">
+        <v>8.3</v>
+      </c>
+      <c r="J7" s="9">
+        <v>5.7</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="4">
+        <v>6</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="9">
+        <v>7.9</v>
+      </c>
+      <c r="J8" s="9">
+        <v>6.4</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+    </row>
+    <row r="9" ht="17.25" spans="1:19">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="4">
+        <v>5</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" s="6">
+        <v>7.5744</v>
+      </c>
+      <c r="J9" s="7">
+        <v>4.4</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="4">
+        <v>3</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" s="8">
+        <v>7.38</v>
+      </c>
+      <c r="J10" s="8">
+        <v>3.8</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="4">
+        <v>6</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="8">
+        <v>6.64</v>
+      </c>
+      <c r="J11" s="8">
+        <v>4.02</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="B12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="4">
+        <v>6</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="4">
-        <v>7.4744</v>
-      </c>
-      <c r="I2" s="5">
-        <v>4.5593</v>
-      </c>
+      <c r="G12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="8">
+        <v>8.24</v>
+      </c>
+      <c r="J12" s="8">
+        <v>4.3</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3">
-        <v>7.3964</v>
-      </c>
-      <c r="I3">
-        <v>3.9167</v>
-      </c>
+    <row r="13" spans="2:19">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4">
-        <v>6.75</v>
-      </c>
-      <c r="I4">
-        <v>4.1667</v>
-      </c>
+    <row r="14" customHeight="1" spans="9:10">
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5">
-        <v>8.1333</v>
-      </c>
-      <c r="I5">
-        <v>4.25</v>
-      </c>
+    <row r="15" customHeight="1" spans="9:10">
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6">
-        <v>7.85</v>
-      </c>
-      <c r="I6">
-        <v>3.9333</v>
-      </c>
-    </row>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://cdn.pixabay.com/photo/2022/01/30/19/46/school-6982073_640.jpg" tooltip="https://cdn.pixabay.com/photo/2022/01/30/19/46/school-6982073_640.jpg"/>
-    <hyperlink ref="E3" r:id="rId2" display="https://cdn.pixabay.com/photo/2015/08/05/13/55/children-876543_640.jpg" tooltip="https://cdn.pixabay.com/photo/2015/08/05/13/55/children-876543_640.jpg"/>
-    <hyperlink ref="E4" r:id="rId3" display="https://cdn.pixabay.com/photo/2020/12/15/13/54/children-5833719_640.jpg" tooltip="https://cdn.pixabay.com/photo/2020/12/15/13/54/children-5833719_640.jpg"/>
-    <hyperlink ref="E5" r:id="rId1" display="https://cdn.pixabay.com/photo/2022/01/30/19/46/school-6982073_640.jpg" tooltip="https://cdn.pixabay.com/photo/2022/01/30/19/46/school-6982073_640.jpg"/>
-    <hyperlink ref="E6" r:id="rId2" display="https://cdn.pixabay.com/photo/2015/08/05/13/55/children-876543_640.jpg" tooltip="https://cdn.pixabay.com/photo/2015/08/05/13/55/children-876543_640.jpg"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>